--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_22_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_22_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82505.25779142548</v>
+        <v>-62922.31362287148</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24916959.95245324</v>
+        <v>24138244.52731848</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1706521.857820311</v>
+        <v>2049999.424929984</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H11" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I11" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J11" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K11" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L11" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M11" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N11" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P11" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R11" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S11" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T11" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23349,22 +23351,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H12" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I12" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J12" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K12" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L12" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R12" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S12" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T12" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23428,49 +23430,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H13" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I13" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J13" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K13" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L13" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M13" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N13" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O13" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P13" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R13" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S13" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T13" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23507,49 +23509,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H14" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I14" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J14" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K14" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L14" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M14" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N14" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P14" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R14" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S14" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T14" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23586,22 +23588,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H15" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I15" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J15" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K15" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L15" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R15" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S15" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T15" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23665,49 +23667,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H16" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I16" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J16" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K16" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L16" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M16" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N16" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O16" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P16" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R16" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S16" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T16" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23744,49 +23746,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H17" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I17" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J17" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K17" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L17" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M17" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N17" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P17" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R17" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T17" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23823,22 +23825,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H18" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I18" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J18" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K18" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L18" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R18" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S18" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T18" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23902,49 +23904,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H19" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I19" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J19" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K19" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L19" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M19" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N19" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O19" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P19" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R19" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S19" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T19" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23981,49 +23983,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H20" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I20" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J20" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K20" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L20" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M20" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N20" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P20" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R20" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T20" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24060,22 +24062,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H21" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I21" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J21" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K21" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L21" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R21" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S21" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T21" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24139,49 +24141,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H22" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I22" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J22" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K22" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L22" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M22" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N22" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O22" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P22" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R22" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S22" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T22" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24218,49 +24220,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H23" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I23" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J23" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K23" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L23" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M23" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N23" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P23" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R23" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T23" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24297,22 +24299,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H24" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I24" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J24" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K24" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L24" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R24" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S24" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T24" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24376,49 +24378,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H25" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I25" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J25" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K25" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L25" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M25" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N25" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O25" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P25" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R25" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S25" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T25" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24455,49 +24457,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H26" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I26" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J26" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K26" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L26" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M26" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N26" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P26" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q26" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R26" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S26" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T26" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24534,22 +24536,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H27" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I27" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J27" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K27" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L27" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R27" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S27" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T27" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24613,49 +24615,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H28" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I28" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J28" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K28" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L28" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M28" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N28" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O28" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P28" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R28" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S28" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T28" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24692,49 +24694,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H29" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I29" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J29" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K29" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L29" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M29" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N29" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P29" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q29" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R29" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S29" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T29" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24771,22 +24773,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H30" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I30" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J30" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K30" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L30" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R30" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S30" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T30" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24850,49 +24852,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H31" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I31" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J31" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K31" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L31" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M31" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N31" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O31" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P31" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R31" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S31" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T31" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24929,49 +24931,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H32" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I32" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J32" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K32" t="n">
-        <v>70.46480586072633</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L32" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M32" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N32" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P32" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q32" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R32" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S32" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T32" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25008,22 +25010,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H33" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I33" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J33" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K33" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L33" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R33" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S33" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T33" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25087,49 +25089,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H34" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I34" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J34" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K34" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L34" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M34" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N34" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O34" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P34" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R34" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S34" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T34" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25166,49 +25168,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H35" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I35" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J35" t="n">
-        <v>74.8003045504001</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K35" t="n">
-        <v>70.46480586072632</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L35" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M35" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N35" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P35" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R35" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S35" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T35" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25245,22 +25247,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H36" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I36" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J36" t="n">
-        <v>59.9944890099195</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K36" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L36" t="n">
-        <v>13.61350529844597</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>21.82048350850063</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R36" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S36" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T36" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25324,49 +25326,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H37" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I37" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J37" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K37" t="n">
-        <v>60.42909946350712</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L37" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M37" t="n">
-        <v>52.97980340177092</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N37" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O37" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P37" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q37" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R37" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S37" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T37" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25403,49 +25405,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H38" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I38" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J38" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K38" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L38" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M38" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N38" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P38" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q38" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R38" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S38" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T38" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25482,22 +25484,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H39" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I39" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J39" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K39" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L39" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R39" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S39" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T39" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25561,49 +25563,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H40" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I40" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J40" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K40" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L40" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M40" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N40" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O40" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P40" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q40" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R40" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S40" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T40" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25640,49 +25642,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H41" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I41" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J41" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927</v>
       </c>
       <c r="K41" t="n">
-        <v>70.46480586072633</v>
+        <v>45.94060241807557</v>
       </c>
       <c r="L41" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M41" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N41" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P41" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R41" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S41" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T41" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25719,22 +25721,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H42" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I42" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J42" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497896</v>
       </c>
       <c r="K42" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L42" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R42" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S42" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T42" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25798,49 +25800,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H43" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I43" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J43" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K43" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L43" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793144</v>
       </c>
       <c r="M43" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N43" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O43" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P43" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R43" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S43" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T43" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25877,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.0910991671059</v>
+        <v>410.8983045093804</v>
       </c>
       <c r="H44" t="n">
-        <v>320.7690783136127</v>
+        <v>318.7946200251814</v>
       </c>
       <c r="I44" t="n">
-        <v>138.2481755487984</v>
+        <v>130.8154595068359</v>
       </c>
       <c r="J44" t="n">
-        <v>74.80030455040011</v>
+        <v>58.43709896927001</v>
       </c>
       <c r="K44" t="n">
-        <v>70.46480586072633</v>
+        <v>45.9406024180756</v>
       </c>
       <c r="L44" t="n">
-        <v>57.13228571623071</v>
+        <v>26.70784276721304</v>
       </c>
       <c r="M44" t="n">
-        <v>37.57934483655106</v>
+        <v>3.726289893207451</v>
       </c>
       <c r="N44" t="n">
-        <v>34.40083276460621</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>43.42807408235635</v>
+        <v>10.94434319550814</v>
       </c>
       <c r="P44" t="n">
-        <v>65.38007183670243</v>
+        <v>37.65595906245261</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.63342487673017</v>
+        <v>67.81377078227503</v>
       </c>
       <c r="R44" t="n">
-        <v>121.6533831199176</v>
+        <v>109.5427457015678</v>
       </c>
       <c r="S44" t="n">
-        <v>165.9452104078107</v>
+        <v>161.5519021448908</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3863943170558</v>
+        <v>217.5424357028624</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2683351220861</v>
+        <v>252.252911549468</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,22 +25958,22 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>126.9854363758741</v>
+        <v>126.8822821399033</v>
       </c>
       <c r="H45" t="n">
-        <v>94.5366171262896</v>
+        <v>93.5403643736245</v>
       </c>
       <c r="I45" t="n">
-        <v>65.16955647617495</v>
+        <v>61.61797422893559</v>
       </c>
       <c r="J45" t="n">
-        <v>59.99448900991949</v>
+        <v>50.24867586497897</v>
       </c>
       <c r="K45" t="n">
-        <v>38.39792023795113</v>
+        <v>21.74077328296876</v>
       </c>
       <c r="L45" t="n">
-        <v>13.61350529844596</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>7.418125047647706</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>21.82048350850062</v>
+        <v>2.122548746678021</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.55545282356709</v>
+        <v>42.38790508806972</v>
       </c>
       <c r="R45" t="n">
-        <v>90.06634312508154</v>
+        <v>83.66173187770315</v>
       </c>
       <c r="S45" t="n">
-        <v>142.8056045053299</v>
+        <v>140.8895598152587</v>
       </c>
       <c r="T45" t="n">
-        <v>184.9611451887135</v>
+        <v>184.5453612288137</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2798590433917</v>
+        <v>216.2730725804989</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8484416772834</v>
+        <v>166.7619606310209</v>
       </c>
       <c r="H46" t="n">
-        <v>154.3816182209092</v>
+        <v>153.6127231005024</v>
       </c>
       <c r="I46" t="n">
-        <v>131.269940117466</v>
+        <v>128.6692191989529</v>
       </c>
       <c r="J46" t="n">
-        <v>76.16864049337387</v>
+        <v>70.05443052261322</v>
       </c>
       <c r="K46" t="n">
-        <v>60.42909946350711</v>
+        <v>50.38157427046082</v>
       </c>
       <c r="L46" t="n">
-        <v>52.78454267318021</v>
+        <v>39.92716966793145</v>
       </c>
       <c r="M46" t="n">
-        <v>52.97980340177091</v>
+        <v>39.423506304455</v>
       </c>
       <c r="N46" t="n">
-        <v>45.27133502328439</v>
+        <v>32.0373763711288</v>
       </c>
       <c r="O46" t="n">
-        <v>58.48650097449923</v>
+        <v>46.26279818095588</v>
       </c>
       <c r="P46" t="n">
-        <v>65.68959993062856</v>
+        <v>55.23011048084078</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.10135641693829</v>
+        <v>83.85974807944615</v>
       </c>
       <c r="R46" t="n">
-        <v>130.8455323770033</v>
+        <v>126.9570300605083</v>
       </c>
       <c r="S46" t="n">
-        <v>204.9135390503414</v>
+        <v>203.4064102713844</v>
       </c>
       <c r="T46" t="n">
-        <v>229.2145141050582</v>
+        <v>228.8450041801183</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2974947811432</v>
+        <v>284.2927776331653</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>196671.2344006591</v>
+        <v>236255.9351783433</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29017.06737058907</v>
+        <v>34857.43305909985</v>
       </c>
       <c r="F2" t="n">
-        <v>29017.06737058907</v>
+        <v>34857.43305909985</v>
       </c>
       <c r="G2" t="n">
-        <v>29017.06737058908</v>
+        <v>34857.43305909985</v>
       </c>
       <c r="H2" t="n">
-        <v>29017.06737058907</v>
+        <v>34857.43305909985</v>
       </c>
       <c r="I2" t="n">
-        <v>29017.06737058908</v>
+        <v>34857.43305909985</v>
       </c>
       <c r="J2" t="n">
-        <v>29017.06737058908</v>
+        <v>34857.43305909985</v>
       </c>
       <c r="K2" t="n">
-        <v>29017.06737058908</v>
+        <v>34857.43305909985</v>
       </c>
       <c r="L2" t="n">
-        <v>29017.06737058907</v>
+        <v>34857.43305909985</v>
       </c>
       <c r="M2" t="n">
-        <v>29017.06737058907</v>
+        <v>34857.43305909984</v>
       </c>
       <c r="N2" t="n">
-        <v>29017.06737058907</v>
+        <v>34857.43305909983</v>
       </c>
       <c r="O2" t="n">
-        <v>29017.06737058907</v>
+        <v>34857.43305909985</v>
       </c>
       <c r="P2" t="n">
-        <v>29017.06737058907</v>
+        <v>34857.43305909985</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>170238.7408618884</v>
+        <v>208768.0777040487</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="F5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="G5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="H5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="I5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="J5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="K5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="L5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="M5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="N5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="O5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
       <c r="P5" t="n">
-        <v>4619.356102465596</v>
+        <v>5664.83333264658</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-145841.0295937649</v>
+        <v>-179575.4779775954</v>
       </c>
       <c r="F6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="G6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="H6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="I6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="J6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="K6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="L6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="M6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645326</v>
       </c>
       <c r="N6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645325</v>
       </c>
       <c r="O6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
       <c r="P6" t="n">
-        <v>24397.71126812348</v>
+        <v>29192.59972645327</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="F3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="G3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="H3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="I3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="J3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="K3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="L3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="M3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="N3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="O3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="P3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>211.8970689204402</v>
+        <v>259.8547400296596</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H11" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I11" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J11" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K11" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L11" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M11" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N11" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P11" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R11" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S11" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T11" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H12" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J12" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K12" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L12" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M12" t="n">
         <v>115.4839025616399</v>
@@ -31853,25 +31855,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O12" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R12" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S12" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T12" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H13" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I13" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J13" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K13" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L13" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M13" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N13" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O13" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P13" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R13" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S13" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T13" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H14" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I14" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J14" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K14" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L14" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M14" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N14" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P14" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R14" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S14" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T14" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H15" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I15" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J15" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K15" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L15" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M15" t="n">
         <v>115.4839025616399</v>
@@ -32090,25 +32092,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O15" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q15" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R15" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S15" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T15" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H16" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I16" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J16" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K16" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L16" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M16" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N16" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O16" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P16" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R16" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S16" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T16" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H17" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I17" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J17" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K17" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L17" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M17" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N17" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O17" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P17" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q17" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R17" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S17" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T17" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H18" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I18" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J18" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K18" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L18" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M18" t="n">
         <v>115.4839025616399</v>
@@ -32327,25 +32329,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O18" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R18" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S18" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T18" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H19" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I19" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J19" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K19" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L19" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M19" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N19" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O19" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P19" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R19" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S19" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T19" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H20" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I20" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J20" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K20" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L20" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M20" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N20" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P20" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R20" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S20" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T20" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H21" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I21" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J21" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K21" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L21" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M21" t="n">
         <v>115.4839025616399</v>
@@ -32564,25 +32566,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R21" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S21" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T21" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H22" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I22" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J22" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K22" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L22" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M22" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N22" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O22" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P22" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R22" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S22" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T22" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H23" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I23" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J23" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K23" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L23" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M23" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N23" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P23" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R23" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S23" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T23" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H24" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I24" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J24" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K24" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L24" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M24" t="n">
         <v>115.4839025616399</v>
@@ -32801,25 +32803,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R24" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S24" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T24" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H25" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I25" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J25" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K25" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L25" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M25" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N25" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O25" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P25" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R25" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S25" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T25" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H26" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I26" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J26" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K26" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L26" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M26" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N26" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P26" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R26" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S26" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T26" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H27" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I27" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J27" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K27" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L27" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
         <v>115.4839025616399</v>
@@ -33038,25 +33040,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R27" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S27" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T27" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H28" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I28" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J28" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K28" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L28" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M28" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N28" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O28" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P28" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R28" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S28" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T28" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H29" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I29" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J29" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K29" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L29" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M29" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N29" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P29" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R29" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S29" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T29" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H30" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I30" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J30" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K30" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L30" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
         <v>115.4839025616399</v>
@@ -33275,25 +33277,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O30" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R30" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S30" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T30" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H31" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I31" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J31" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K31" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L31" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M31" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N31" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O31" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P31" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R31" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S31" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T31" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H32" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I32" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J32" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K32" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L32" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M32" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N32" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P32" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R32" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S32" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T32" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06814780105984</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H33" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I33" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J33" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L33" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
         <v>115.4839025616399</v>
@@ -33512,25 +33514,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R33" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S33" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T33" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H34" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I34" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J34" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K34" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L34" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M34" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N34" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O34" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P34" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R34" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S34" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T34" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H35" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I35" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J35" t="n">
-        <v>72.29949287753253</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K35" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L35" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M35" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N35" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P35" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R35" t="n">
-        <v>53.50986635406473</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S35" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T35" t="n">
-        <v>3.728962489243122</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H36" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I36" t="n">
-        <v>15.69237727382505</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J36" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K36" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L36" t="n">
-        <v>98.96192827270181</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M36" t="n">
         <v>115.4839025616399</v>
@@ -33749,25 +33751,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O36" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>87.03372251564269</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R36" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S36" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T36" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H37" t="n">
-        <v>3.397300547609682</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I37" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J37" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K37" t="n">
-        <v>44.39417280005286</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L37" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M37" t="n">
-        <v>59.89739605565818</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N37" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O37" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P37" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R37" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S37" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T37" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H38" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I38" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J38" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K38" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L38" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M38" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N38" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P38" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R38" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S38" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T38" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H39" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I39" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J39" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K39" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L39" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
         <v>115.4839025616399</v>
@@ -33986,25 +33988,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O39" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R39" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S39" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T39" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H40" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I40" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J40" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K40" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L40" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M40" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N40" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O40" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P40" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R40" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S40" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T40" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H41" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I41" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J41" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866263</v>
       </c>
       <c r="K41" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L41" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M41" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N41" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P41" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R41" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S41" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105878</v>
       </c>
       <c r="T41" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06814780105984</v>
+        <v>0.08357137367788041</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H42" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I42" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J42" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168773</v>
       </c>
       <c r="K42" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L42" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
         <v>115.4839025616399</v>
@@ -34223,25 +34225,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O42" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R42" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S42" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212838</v>
       </c>
       <c r="T42" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400846</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H43" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016512</v>
       </c>
       <c r="I43" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J43" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K43" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309917</v>
       </c>
       <c r="L43" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057466</v>
       </c>
       <c r="M43" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N43" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O43" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P43" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R43" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S43" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964874</v>
       </c>
       <c r="T43" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8518475132480001</v>
+        <v>1.044642170973505</v>
       </c>
       <c r="H44" t="n">
-        <v>8.723983345051083</v>
+        <v>10.69844163348241</v>
       </c>
       <c r="I44" t="n">
-        <v>32.84085125449356</v>
+        <v>40.2735672964561</v>
       </c>
       <c r="J44" t="n">
-        <v>72.29949287753251</v>
+        <v>88.66269845866262</v>
       </c>
       <c r="K44" t="n">
-        <v>108.3581981133204</v>
+        <v>132.8824015559711</v>
       </c>
       <c r="L44" t="n">
-        <v>134.4279264468839</v>
+        <v>164.8523693959016</v>
       </c>
       <c r="M44" t="n">
-        <v>149.576969660608</v>
+        <v>183.4300246039516</v>
       </c>
       <c r="N44" t="n">
-        <v>151.9972814076239</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>143.5267226977641</v>
+        <v>176.0104535846123</v>
       </c>
       <c r="P44" t="n">
-        <v>122.4967372144541</v>
+        <v>150.2208499887039</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.98994814626005</v>
+        <v>112.8096022407152</v>
       </c>
       <c r="R44" t="n">
-        <v>53.50986635406474</v>
+        <v>65.62050377241451</v>
       </c>
       <c r="S44" t="n">
-        <v>19.41147520813882</v>
+        <v>23.80478347105877</v>
       </c>
       <c r="T44" t="n">
-        <v>3.728962489243123</v>
+        <v>4.572921103436522</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06814780105984</v>
+        <v>0.0835713736778804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4557786010741544</v>
+        <v>0.5589328370449282</v>
       </c>
       <c r="H45" t="n">
-        <v>4.401861752479334</v>
+        <v>5.39811450514444</v>
       </c>
       <c r="I45" t="n">
-        <v>15.69237727382506</v>
+        <v>19.24395952106442</v>
       </c>
       <c r="J45" t="n">
-        <v>43.0610826567472</v>
+        <v>52.80689580168772</v>
       </c>
       <c r="K45" t="n">
-        <v>73.59824892871555</v>
+        <v>90.25539588369791</v>
       </c>
       <c r="L45" t="n">
-        <v>98.96192827270183</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
         <v>115.4839025616399</v>
@@ -34460,25 +34462,25 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>108.4413235634634</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>87.03372251564271</v>
+        <v>106.7316572774653</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.1797386213254</v>
+        <v>71.34728635682278</v>
       </c>
       <c r="R45" t="n">
-        <v>28.29825384563918</v>
+        <v>34.70286509301758</v>
       </c>
       <c r="S45" t="n">
-        <v>8.465887612057205</v>
+        <v>10.38193230212837</v>
       </c>
       <c r="T45" t="n">
-        <v>1.837107606961174</v>
+        <v>2.252891566860916</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02998543428119438</v>
+        <v>0.03677189717400845</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3821094685450561</v>
+        <v>0.4685905148075829</v>
       </c>
       <c r="H46" t="n">
-        <v>3.397300547609683</v>
+        <v>4.166195668016513</v>
       </c>
       <c r="I46" t="n">
-        <v>11.49107383588223</v>
+        <v>14.09179475439532</v>
       </c>
       <c r="J46" t="n">
-        <v>27.01513942613546</v>
+        <v>33.12934939689611</v>
       </c>
       <c r="K46" t="n">
-        <v>44.39417280005287</v>
+        <v>54.44169799309916</v>
       </c>
       <c r="L46" t="n">
-        <v>56.80925680532589</v>
+        <v>69.66662981057465</v>
       </c>
       <c r="M46" t="n">
-        <v>59.89739605565819</v>
+        <v>73.4536931529741</v>
       </c>
       <c r="N46" t="n">
-        <v>58.47316985471758</v>
+        <v>71.70712850687316</v>
       </c>
       <c r="O46" t="n">
-        <v>54.00943651762304</v>
+        <v>66.23313931116638</v>
       </c>
       <c r="P46" t="n">
-        <v>46.21440335930385</v>
+        <v>56.67389280909164</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.99645740698647</v>
+        <v>39.2380657444786</v>
       </c>
       <c r="R46" t="n">
-        <v>17.18103119476224</v>
+        <v>21.06953351125731</v>
       </c>
       <c r="S46" t="n">
-        <v>6.659125920007929</v>
+        <v>8.166254698964872</v>
       </c>
       <c r="T46" t="n">
-        <v>1.632649547419785</v>
+        <v>2.002159472359672</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02084233464791217</v>
+        <v>0.02555948262586819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_22_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_22_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62922.31362287148</v>
+        <v>-202040.3946650926</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24138244.52731848</v>
+        <v>24066068.79472965</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2049999.424929984</v>
+        <v>2081834.860872068</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H11" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I11" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J11" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K11" t="n">
-        <v>45.94060241807557</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L11" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M11" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P11" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R11" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S11" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U11" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23351,19 +23351,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H12" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I12" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J12" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K12" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23378,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R12" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S12" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T12" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -23430,49 +23430,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H13" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I13" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J13" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K13" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L13" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M13" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N13" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O13" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P13" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R13" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S13" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T13" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23509,49 +23509,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H14" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I14" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J14" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071279</v>
       </c>
       <c r="K14" t="n">
-        <v>45.94060241807557</v>
+        <v>43.29799963205343</v>
       </c>
       <c r="L14" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622977</v>
       </c>
       <c r="M14" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207048516</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>10.94434319550814</v>
+        <v>7.444062424199188</v>
       </c>
       <c r="P14" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599816</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496393</v>
       </c>
       <c r="R14" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S14" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U14" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
@@ -23588,19 +23588,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H15" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I15" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J15" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474489</v>
       </c>
       <c r="K15" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470415</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23615,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R15" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S15" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T15" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U15" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -23667,49 +23667,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H16" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I16" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J16" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K16" t="n">
-        <v>50.38157427046082</v>
+        <v>49.29890432238841</v>
       </c>
       <c r="L16" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M16" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414103</v>
       </c>
       <c r="N16" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374985</v>
       </c>
       <c r="O16" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009283</v>
       </c>
       <c r="P16" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R16" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S16" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T16" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23746,49 +23746,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H17" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I17" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J17" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K17" t="n">
-        <v>45.94060241807557</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L17" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M17" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P17" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R17" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S17" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U17" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -23825,19 +23825,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H18" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I18" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J18" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K18" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R18" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S18" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T18" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -23904,49 +23904,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H19" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I19" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J19" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K19" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L19" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M19" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N19" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O19" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P19" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R19" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S19" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T19" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23983,49 +23983,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H20" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I20" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J20" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K20" t="n">
-        <v>45.94060241807557</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L20" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M20" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P20" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R20" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S20" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U20" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24062,19 +24062,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H21" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I21" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J21" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K21" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R21" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S21" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T21" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -24141,49 +24141,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H22" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I22" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J22" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K22" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L22" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M22" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N22" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O22" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P22" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R22" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S22" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T22" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -24220,49 +24220,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H23" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I23" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J23" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K23" t="n">
-        <v>45.94060241807557</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L23" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M23" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P23" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R23" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S23" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U23" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24299,19 +24299,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H24" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I24" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J24" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K24" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R24" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S24" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T24" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -24378,49 +24378,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H25" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I25" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J25" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K25" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L25" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M25" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N25" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O25" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P25" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R25" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S25" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T25" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -24457,49 +24457,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H26" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I26" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J26" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K26" t="n">
-        <v>45.94060241807557</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L26" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M26" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P26" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R26" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S26" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U26" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24536,19 +24536,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H27" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I27" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J27" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K27" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R27" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S27" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T27" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U27" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -24615,49 +24615,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H28" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J28" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K28" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L28" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M28" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N28" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O28" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P28" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R28" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S28" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T28" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -24694,49 +24694,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H29" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I29" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J29" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K29" t="n">
-        <v>45.94060241807557</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L29" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M29" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P29" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R29" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S29" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U29" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24773,19 +24773,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H30" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I30" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J30" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K30" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R30" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S30" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T30" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U30" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -24852,49 +24852,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H31" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J31" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K31" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L31" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M31" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N31" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O31" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P31" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R31" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S31" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T31" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24931,49 +24931,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H32" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I32" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J32" t="n">
-        <v>58.43709896927001</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K32" t="n">
-        <v>45.9406024180756</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L32" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M32" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P32" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S32" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U32" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -25010,19 +25010,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H33" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I33" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J33" t="n">
-        <v>50.24867586497897</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K33" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R33" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S33" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T33" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U33" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V33" t="n">
         <v>226.1116663261494</v>
@@ -25089,49 +25089,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H34" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I34" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J34" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K34" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L34" t="n">
-        <v>39.92716966793145</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M34" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N34" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O34" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P34" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R34" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S34" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T34" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25168,49 +25168,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H35" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I35" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J35" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071279</v>
       </c>
       <c r="K35" t="n">
-        <v>45.94060241807557</v>
+        <v>43.29799963205343</v>
       </c>
       <c r="L35" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622977</v>
       </c>
       <c r="M35" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207048516</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>10.94434319550814</v>
+        <v>7.444062424199188</v>
       </c>
       <c r="P35" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599816</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496393</v>
       </c>
       <c r="R35" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S35" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U35" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25247,19 +25247,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H36" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I36" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J36" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474489</v>
       </c>
       <c r="K36" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470415</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R36" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S36" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T36" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U36" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -25326,49 +25326,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H37" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I37" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J37" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K37" t="n">
-        <v>50.38157427046082</v>
+        <v>49.29890432238841</v>
       </c>
       <c r="L37" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M37" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414103</v>
       </c>
       <c r="N37" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374985</v>
       </c>
       <c r="O37" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009283</v>
       </c>
       <c r="P37" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R37" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S37" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T37" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25405,49 +25405,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H38" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I38" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J38" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K38" t="n">
-        <v>45.94060241807557</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L38" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M38" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P38" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R38" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S38" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U38" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25484,19 +25484,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H39" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I39" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J39" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K39" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R39" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S39" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T39" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -25563,49 +25563,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H40" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I40" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J40" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K40" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L40" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M40" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N40" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O40" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P40" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R40" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S40" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T40" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25642,49 +25642,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H41" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I41" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J41" t="n">
-        <v>58.43709896927</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K41" t="n">
-        <v>45.94060241807557</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L41" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M41" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P41" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R41" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S41" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U41" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25721,19 +25721,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H42" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I42" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J42" t="n">
-        <v>50.24867586497896</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K42" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R42" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S42" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T42" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U42" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -25800,49 +25800,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H43" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I43" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J43" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K43" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L43" t="n">
-        <v>39.92716966793144</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M43" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N43" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O43" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P43" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R43" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S43" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T43" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25879,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.8983045093804</v>
+        <v>410.8775299427027</v>
       </c>
       <c r="H44" t="n">
-        <v>318.7946200251814</v>
+        <v>318.5818624941939</v>
       </c>
       <c r="I44" t="n">
-        <v>130.8154595068359</v>
+        <v>130.0145480249957</v>
       </c>
       <c r="J44" t="n">
-        <v>58.43709896927001</v>
+        <v>56.67388359071278</v>
       </c>
       <c r="K44" t="n">
-        <v>45.9406024180756</v>
+        <v>43.2979996320534</v>
       </c>
       <c r="L44" t="n">
-        <v>26.70784276721304</v>
+        <v>23.42946033622971</v>
       </c>
       <c r="M44" t="n">
-        <v>3.726289893207451</v>
+        <v>0.07845776207045674</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>10.94434319550814</v>
+        <v>7.44406242419916</v>
       </c>
       <c r="P44" t="n">
-        <v>37.65595906245261</v>
+        <v>34.66855040599813</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.81377078227503</v>
+        <v>65.57035129496391</v>
       </c>
       <c r="R44" t="n">
-        <v>109.5427457015678</v>
+        <v>108.2377653275029</v>
       </c>
       <c r="S44" t="n">
-        <v>161.5519021448908</v>
+        <v>161.0785017067238</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5424357028624</v>
+        <v>217.451495037231</v>
       </c>
       <c r="U44" t="n">
-        <v>252.252911549468</v>
+        <v>252.2512495841338</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25958,19 +25958,19 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>126.8822821399033</v>
+        <v>126.8711667667984</v>
       </c>
       <c r="H45" t="n">
-        <v>93.5403643736245</v>
+        <v>93.43301327021632</v>
       </c>
       <c r="I45" t="n">
-        <v>61.61797422893559</v>
+        <v>61.23527388299819</v>
       </c>
       <c r="J45" t="n">
-        <v>50.24867586497897</v>
+        <v>49.19851686474488</v>
       </c>
       <c r="K45" t="n">
-        <v>21.74077328296876</v>
+        <v>19.94588428470414</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.122548746678021</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.38790508806972</v>
+        <v>40.96903746155225</v>
       </c>
       <c r="R45" t="n">
-        <v>83.66173187770315</v>
+        <v>82.97160371246878</v>
       </c>
       <c r="S45" t="n">
-        <v>140.8895598152587</v>
+        <v>140.6830966349982</v>
       </c>
       <c r="T45" t="n">
-        <v>184.5453612288137</v>
+        <v>184.500558474939</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2730725804989</v>
+        <v>216.2723413059526</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26037,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7619606310209</v>
+        <v>166.7526418755993</v>
       </c>
       <c r="H46" t="n">
-        <v>153.6127231005024</v>
+        <v>153.5298708932086</v>
       </c>
       <c r="I46" t="n">
-        <v>128.6692191989529</v>
+        <v>128.3889788086381</v>
       </c>
       <c r="J46" t="n">
-        <v>70.05443052261322</v>
+        <v>69.39559451430657</v>
       </c>
       <c r="K46" t="n">
-        <v>50.38157427046082</v>
+        <v>49.2989043223884</v>
       </c>
       <c r="L46" t="n">
-        <v>39.92716966793145</v>
+        <v>38.54172488461562</v>
       </c>
       <c r="M46" t="n">
-        <v>39.423506304455</v>
+        <v>37.96274903414101</v>
       </c>
       <c r="N46" t="n">
-        <v>32.0373763711288</v>
+        <v>30.61135264374984</v>
       </c>
       <c r="O46" t="n">
-        <v>46.26279818095588</v>
+        <v>44.94563446009282</v>
       </c>
       <c r="P46" t="n">
-        <v>55.23011048084078</v>
+        <v>54.10304937057823</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.85974807944615</v>
+        <v>83.07942938682525</v>
       </c>
       <c r="R46" t="n">
-        <v>126.9570300605083</v>
+        <v>126.5380249303701</v>
       </c>
       <c r="S46" t="n">
-        <v>203.4064102713844</v>
+        <v>203.2440097791736</v>
       </c>
       <c r="T46" t="n">
-        <v>228.8450041801183</v>
+        <v>228.8051876796806</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2927776331653</v>
+        <v>284.292269337415</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236255.9351783433</v>
+        <v>239924.8682516119</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351652</v>
       </c>
       <c r="F2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351653</v>
       </c>
       <c r="G2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351653</v>
       </c>
       <c r="H2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351653</v>
       </c>
       <c r="I2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351653</v>
       </c>
       <c r="J2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351653</v>
       </c>
       <c r="K2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351653</v>
       </c>
       <c r="L2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351653</v>
       </c>
       <c r="M2" t="n">
-        <v>34857.43305909984</v>
+        <v>35398.75105351653</v>
       </c>
       <c r="N2" t="n">
-        <v>34857.43305909983</v>
+        <v>35398.75105351652</v>
       </c>
       <c r="O2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351653</v>
       </c>
       <c r="P2" t="n">
-        <v>34857.43305909985</v>
+        <v>35398.75105351652</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>208768.0777040487</v>
+        <v>212919.8020656891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
       <c r="F5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097808</v>
       </c>
       <c r="G5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
       <c r="H5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
       <c r="I5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
       <c r="J5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
       <c r="K5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
       <c r="L5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
       <c r="M5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097808</v>
       </c>
       <c r="N5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
       <c r="O5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
       <c r="P5" t="n">
-        <v>5664.83333264658</v>
+        <v>5777.488614097809</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="E6" t="n">
-        <v>-179575.4779775954</v>
+        <v>-198555.9465771231</v>
       </c>
       <c r="F6" t="n">
-        <v>29192.59972645327</v>
+        <v>14363.85548856601</v>
       </c>
       <c r="G6" t="n">
-        <v>29192.59972645327</v>
+        <v>14363.85548856601</v>
       </c>
       <c r="H6" t="n">
-        <v>29192.59972645327</v>
+        <v>14363.85548856601</v>
       </c>
       <c r="I6" t="n">
-        <v>29192.59972645327</v>
+        <v>14363.85548856601</v>
       </c>
       <c r="J6" t="n">
-        <v>29192.59972645327</v>
+        <v>14363.85548856601</v>
       </c>
       <c r="K6" t="n">
-        <v>29192.59972645327</v>
+        <v>14363.85548856601</v>
       </c>
       <c r="L6" t="n">
-        <v>29192.59972645327</v>
+        <v>14363.85548856601</v>
       </c>
       <c r="M6" t="n">
-        <v>29192.59972645326</v>
+        <v>14363.85548856601</v>
       </c>
       <c r="N6" t="n">
-        <v>29192.59972645325</v>
+        <v>14363.855488566</v>
       </c>
       <c r="O6" t="n">
-        <v>29192.59972645327</v>
+        <v>14363.85548856601</v>
       </c>
       <c r="P6" t="n">
-        <v>29192.59972645327</v>
+        <v>14363.855488566</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="F3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907251</v>
       </c>
       <c r="G3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="H3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="I3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="J3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="K3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="L3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="M3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907251</v>
       </c>
       <c r="N3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="O3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="P3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>259.8547400296596</v>
+        <v>265.0224134907252</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H11" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I11" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J11" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K11" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L11" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M11" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N11" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P11" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q11" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R11" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S11" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T11" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H12" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I12" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J12" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K12" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L12" t="n">
         <v>112.5754335711478</v>
@@ -31858,22 +31858,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R12" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S12" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T12" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H13" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I13" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J13" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K13" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L13" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M13" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N13" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O13" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P13" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R13" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S13" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T13" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651155</v>
       </c>
       <c r="H14" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I14" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829621</v>
       </c>
       <c r="J14" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721984</v>
       </c>
       <c r="K14" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L14" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268848</v>
       </c>
       <c r="M14" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N14" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P14" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451583</v>
       </c>
       <c r="Q14" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R14" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S14" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T14" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498616</v>
       </c>
       <c r="H15" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552612</v>
       </c>
       <c r="I15" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J15" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K15" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196253</v>
       </c>
       <c r="L15" t="n">
         <v>112.5754335711478</v>
@@ -32095,22 +32095,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R15" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825195</v>
       </c>
       <c r="S15" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T15" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038565</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H16" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I16" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J16" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K16" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L16" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M16" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328807</v>
       </c>
       <c r="N16" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425211</v>
       </c>
       <c r="O16" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202943</v>
       </c>
       <c r="P16" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R16" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S16" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T16" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H17" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I17" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J17" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K17" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L17" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M17" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N17" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O17" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P17" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q17" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R17" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S17" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T17" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H18" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I18" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J18" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K18" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L18" t="n">
         <v>112.5754335711478</v>
@@ -32332,22 +32332,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R18" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S18" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T18" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H19" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I19" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J19" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K19" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L19" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M19" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N19" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O19" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P19" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R19" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S19" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T19" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H20" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I20" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J20" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K20" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L20" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M20" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N20" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P20" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q20" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R20" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S20" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T20" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H21" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I21" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J21" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K21" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L21" t="n">
         <v>112.5754335711478</v>
@@ -32569,22 +32569,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R21" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S21" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T21" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H22" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I22" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J22" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K22" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L22" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M22" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N22" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O22" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P22" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R22" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S22" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H23" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I23" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J23" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K23" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L23" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M23" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N23" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P23" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q23" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R23" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S23" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T23" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H24" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I24" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J24" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K24" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L24" t="n">
         <v>112.5754335711478</v>
@@ -32806,22 +32806,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R24" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S24" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T24" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H25" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I25" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J25" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K25" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L25" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M25" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N25" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O25" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P25" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R25" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S25" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T25" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H26" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I26" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J26" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K26" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L26" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M26" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N26" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P26" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q26" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R26" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S26" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T26" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H27" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I27" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J27" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K27" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L27" t="n">
         <v>112.5754335711478</v>
@@ -33043,22 +33043,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R27" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S27" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T27" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H28" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I28" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J28" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K28" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L28" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M28" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N28" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O28" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P28" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R28" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S28" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T28" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H29" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I29" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J29" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K29" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L29" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M29" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N29" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P29" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q29" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R29" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S29" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T29" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H30" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I30" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J30" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K30" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L30" t="n">
         <v>112.5754335711478</v>
@@ -33280,22 +33280,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R30" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S30" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T30" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H31" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J31" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K31" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L31" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M31" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N31" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O31" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P31" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R31" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S31" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T31" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H32" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I32" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J32" t="n">
-        <v>88.66269845866262</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K32" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L32" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M32" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N32" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P32" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q32" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R32" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S32" t="n">
-        <v>23.80478347105877</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T32" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0835713736778804</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H33" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I33" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J33" t="n">
-        <v>52.80689580168772</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K33" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L33" t="n">
         <v>112.5754335711478</v>
@@ -33517,22 +33517,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R33" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S33" t="n">
-        <v>10.38193230212837</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T33" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03677189717400845</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H34" t="n">
-        <v>4.166195668016513</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I34" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J34" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K34" t="n">
-        <v>54.44169799309916</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L34" t="n">
-        <v>69.66662981057465</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M34" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N34" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O34" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P34" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R34" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S34" t="n">
-        <v>8.166254698964872</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T34" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651155</v>
       </c>
       <c r="H35" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I35" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829621</v>
       </c>
       <c r="J35" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721984</v>
       </c>
       <c r="K35" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L35" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268848</v>
       </c>
       <c r="M35" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N35" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P35" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451583</v>
       </c>
       <c r="Q35" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R35" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S35" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T35" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498616</v>
       </c>
       <c r="H36" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552612</v>
       </c>
       <c r="I36" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J36" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K36" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196253</v>
       </c>
       <c r="L36" t="n">
         <v>112.5754335711478</v>
@@ -33754,22 +33754,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R36" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825195</v>
       </c>
       <c r="S36" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T36" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038565</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H37" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I37" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J37" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K37" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L37" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M37" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328807</v>
       </c>
       <c r="N37" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425211</v>
       </c>
       <c r="O37" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202943</v>
       </c>
       <c r="P37" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R37" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S37" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T37" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H38" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I38" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J38" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K38" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L38" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M38" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N38" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P38" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q38" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R38" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S38" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T38" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H39" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I39" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J39" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K39" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L39" t="n">
         <v>112.5754335711478</v>
@@ -33991,22 +33991,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R39" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S39" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T39" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H40" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I40" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J40" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K40" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L40" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M40" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N40" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O40" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P40" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R40" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S40" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H41" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I41" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J41" t="n">
-        <v>88.66269845866263</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K41" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L41" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M41" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N41" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P41" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q41" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R41" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S41" t="n">
-        <v>23.80478347105878</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T41" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08357137367788041</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H42" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I42" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J42" t="n">
-        <v>52.80689580168773</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K42" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L42" t="n">
         <v>112.5754335711478</v>
@@ -34228,22 +34228,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R42" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S42" t="n">
-        <v>10.38193230212838</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T42" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03677189717400846</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H43" t="n">
-        <v>4.166195668016512</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I43" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J43" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K43" t="n">
-        <v>54.44169799309917</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L43" t="n">
-        <v>69.66662981057466</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M43" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N43" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O43" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P43" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R43" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S43" t="n">
-        <v>8.166254698964874</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.044642170973505</v>
+        <v>1.065416737651156</v>
       </c>
       <c r="H44" t="n">
-        <v>10.69844163348241</v>
+        <v>10.9111991644699</v>
       </c>
       <c r="I44" t="n">
-        <v>40.2735672964561</v>
+        <v>41.07447877829622</v>
       </c>
       <c r="J44" t="n">
-        <v>88.66269845866262</v>
+        <v>90.42591383721985</v>
       </c>
       <c r="K44" t="n">
-        <v>132.8824015559711</v>
+        <v>135.5250043419933</v>
       </c>
       <c r="L44" t="n">
-        <v>164.8523693959016</v>
+        <v>168.1307518268849</v>
       </c>
       <c r="M44" t="n">
-        <v>183.4300246039516</v>
+        <v>187.0778567350886</v>
       </c>
       <c r="N44" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>176.0104535846123</v>
+        <v>179.5107343559213</v>
       </c>
       <c r="P44" t="n">
-        <v>150.2208499887039</v>
+        <v>153.2082586451584</v>
       </c>
       <c r="Q44" t="n">
-        <v>112.8096022407152</v>
+        <v>115.0530217280263</v>
       </c>
       <c r="R44" t="n">
-        <v>65.62050377241451</v>
+        <v>66.92548414647946</v>
       </c>
       <c r="S44" t="n">
-        <v>23.80478347105877</v>
+        <v>24.27818390922573</v>
       </c>
       <c r="T44" t="n">
-        <v>4.572921103436522</v>
+        <v>4.663861769067936</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0835713736778804</v>
+        <v>0.08523333901209243</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5589328370449282</v>
+        <v>0.5700482101498617</v>
       </c>
       <c r="H45" t="n">
-        <v>5.39811450514444</v>
+        <v>5.505465608552613</v>
       </c>
       <c r="I45" t="n">
-        <v>19.24395952106442</v>
+        <v>19.62665986700182</v>
       </c>
       <c r="J45" t="n">
-        <v>52.80689580168772</v>
+        <v>53.85705480192181</v>
       </c>
       <c r="K45" t="n">
-        <v>90.25539588369791</v>
+        <v>92.05028488196254</v>
       </c>
       <c r="L45" t="n">
         <v>112.5754335711478</v>
@@ -34465,22 +34465,22 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>106.7316572774653</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.34728635682278</v>
+        <v>72.76615398334025</v>
       </c>
       <c r="R45" t="n">
-        <v>34.70286509301758</v>
+        <v>35.39299325825196</v>
       </c>
       <c r="S45" t="n">
-        <v>10.38193230212837</v>
+        <v>10.58839548238887</v>
       </c>
       <c r="T45" t="n">
-        <v>2.252891566860916</v>
+        <v>2.297694320735626</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03677189717400845</v>
+        <v>0.03750317172038566</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4685905148075829</v>
+        <v>0.4779092702291765</v>
       </c>
       <c r="H46" t="n">
-        <v>4.166195668016513</v>
+        <v>4.249047875310318</v>
       </c>
       <c r="I46" t="n">
-        <v>14.09179475439532</v>
+        <v>14.37203514471015</v>
       </c>
       <c r="J46" t="n">
-        <v>33.12934939689611</v>
+        <v>33.78818540520277</v>
       </c>
       <c r="K46" t="n">
-        <v>54.44169799309916</v>
+        <v>55.52436794117158</v>
       </c>
       <c r="L46" t="n">
-        <v>69.66662981057465</v>
+        <v>71.05207459389048</v>
       </c>
       <c r="M46" t="n">
-        <v>73.4536931529741</v>
+        <v>74.91445042328809</v>
       </c>
       <c r="N46" t="n">
-        <v>71.70712850687316</v>
+        <v>73.13315223425212</v>
       </c>
       <c r="O46" t="n">
-        <v>66.23313931116638</v>
+        <v>67.55030303202945</v>
       </c>
       <c r="P46" t="n">
-        <v>56.67389280909164</v>
+        <v>57.80095391935419</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2380657444786</v>
+        <v>40.0183844370995</v>
       </c>
       <c r="R46" t="n">
-        <v>21.06953351125731</v>
+        <v>21.48853864139551</v>
       </c>
       <c r="S46" t="n">
-        <v>8.166254698964872</v>
+        <v>8.328655191175736</v>
       </c>
       <c r="T46" t="n">
-        <v>2.002159472359672</v>
+        <v>2.04197597279739</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02555948262586819</v>
+        <v>0.02606777837613693</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
